--- a/AccuKnox_Manual_Test_Cases.xlsx
+++ b/AccuKnox_Manual_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AccuKnox-user-management-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09BB411-1EA3-41D1-A452-BB056EB60E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E997A8B2-7E0C-45A2-9E52-F76B20BFA987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -43,121 +43,214 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Add New User</t>
-  </si>
-  <si>
-    <t>Add User with Empty Username</t>
-  </si>
-  <si>
-    <t>Add User with Invalid Username</t>
-  </si>
-  <si>
-    <t>Add User with Role Missing</t>
-  </si>
-  <si>
-    <t>Add User with Duplicate Username</t>
-  </si>
-  <si>
-    <t>Edit Existing User</t>
-  </si>
-  <si>
-    <t>Delete User</t>
-  </si>
-  <si>
-    <t>Add User with Maximum Length Username</t>
-  </si>
-  <si>
-    <t>Add User with Special Characters in Role</t>
-  </si>
-  <si>
-    <t>View User List</t>
+    <t>Add a New User</t>
+  </si>
+  <si>
+    <t>Search the User</t>
+  </si>
+  <si>
+    <t>Edit User Details</t>
+  </si>
+  <si>
+    <t>Validate User Details</t>
+  </si>
+  <si>
+    <t>Delete the User</t>
+  </si>
+  <si>
+    <t>Login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Check mandatory field validation</t>
+  </si>
+  <si>
+    <t>Duplicate Username Error</t>
+  </si>
+  <si>
+    <t>Check password mismatch</t>
+  </si>
+  <si>
+    <t>Cancel add user operation</t>
+  </si>
+  <si>
+    <t>Filter by User Role</t>
+  </si>
+  <si>
+    <t>Filter by Status</t>
+  </si>
+  <si>
+    <t>Check logout functionality</t>
+  </si>
+  <si>
+    <t>Check user detail view</t>
+  </si>
+  <si>
+    <t>Add user with special characters</t>
   </si>
   <si>
     <t>Logged in as Admin</t>
   </si>
   <si>
-    <t>Logged in as Admin, User exists</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → Add → Fill Form → Save</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → Add → Leave Username Blank → Save</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → Add → Fill Form with Invalid Username → Save</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → Add → Leave Role Blank → Save</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → Add → Fill Form with Existing Username → Save</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → Edit User → Change Role → Save</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → Select User → Delete → Confirm</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → Add → Fill Form with max length username → Save</t>
-  </si>
-  <si>
-    <t>Navigate → Admin → View Users</t>
-  </si>
-  <si>
-    <t>Username: `deekshith_test`, Role: Admin</t>
-  </si>
-  <si>
-    <t>Username: ``, Role: Admin</t>
-  </si>
-  <si>
-    <t>Username: `user!@#`, Role: Admin</t>
-  </si>
-  <si>
-    <t>Username: `valid_user`, Role: ``</t>
-  </si>
-  <si>
-    <t>Username: `deekshith_test`, Role: User</t>
-  </si>
-  <si>
-    <t>Username: `deekshith_test`</t>
-  </si>
-  <si>
-    <t>Username: `a_very_long_username_1234567890`, Role: Admin</t>
-  </si>
-  <si>
-    <t>Username: `new_user`, Role: `Adm!n`</t>
+    <t>User already added</t>
+  </si>
+  <si>
+    <t>User is present</t>
+  </si>
+  <si>
+    <t>User is edited</t>
+  </si>
+  <si>
+    <t>User is on login page</t>
+  </si>
+  <si>
+    <t>On Add User page</t>
+  </si>
+  <si>
+    <t>User already exists</t>
+  </si>
+  <si>
+    <t>Users exist with multiple roles</t>
+  </si>
+  <si>
+    <t>Users exist with different status</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>User exists</t>
+  </si>
+  <si>
+    <t>1. Go to Admin tab2. Click Add3. Fill form and Save</t>
+  </si>
+  <si>
+    <t>1. Go to Admin2. Enter username3. Click Search</t>
+  </si>
+  <si>
+    <t>1. Search user2. Click Edit3. Change status4. Save</t>
+  </si>
+  <si>
+    <t>1. Search user again2. Check status in result</t>
+  </si>
+  <si>
+    <t>1. Search user2. Click Delete3. Confirm</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username/password
+2. Click Login</t>
+  </si>
+  <si>
+    <t>1. Leave username blank
+2. Click Save</t>
+  </si>
+  <si>
+    <t>1. Add new user with same username
+2. Click Save</t>
+  </si>
+  <si>
+    <t>1. Enter mismatched password and confirm password
+2. Click Save</t>
+  </si>
+  <si>
+    <t>1. Fill user details
+2. Click Cancel</t>
+  </si>
+  <si>
+    <t>1. Select role 'ESS'
+2. Click Search</t>
+  </si>
+  <si>
+    <t>1. Select status 'Disabled'
+2. Click Search</t>
+  </si>
+  <si>
+    <t>1. Click profile
+2. Click Logout</t>
+  </si>
+  <si>
+    <t>1. Search user
+2. Click username link</t>
+  </si>
+  <si>
+    <t>1. Use special chars in username
+2. Click Save</t>
+  </si>
+  <si>
+    <t>Username: deekshith_testPassword: Test@1234</t>
+  </si>
+  <si>
+    <t>Username: deekshith_test</t>
+  </si>
+  <si>
+    <t>Status: Disabled</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>User added successfully</t>
-  </si>
-  <si>
-    <t>Error message: 'Username is required'</t>
-  </si>
-  <si>
-    <t>Error message: 'Invalid characters in username'</t>
-  </si>
-  <si>
-    <t>Error message: 'Role is required'</t>
-  </si>
-  <si>
-    <t>Error message: 'Username already exists'</t>
-  </si>
-  <si>
-    <t>User updated successfully</t>
-  </si>
-  <si>
-    <t>User deleted successfully</t>
-  </si>
-  <si>
-    <t>Error message: 'Invalid characters in role'</t>
-  </si>
-  <si>
-    <t>List of users displayed</t>
+    <t>Username: wronguser
+Password: wrongpass</t>
+  </si>
+  <si>
+    <t>Username: [blank]</t>
+  </si>
+  <si>
+    <t>Password: Test@1234
+Confirm: Test@0000</t>
+  </si>
+  <si>
+    <t>Username: cancel_test</t>
+  </si>
+  <si>
+    <t>User Role: ESS</t>
+  </si>
+  <si>
+    <t>Username: test@123!</t>
+  </si>
+  <si>
+    <t>User should be added</t>
+  </si>
+  <si>
+    <t>User should appear in table</t>
+  </si>
+  <si>
+    <t>User status should be updated</t>
+  </si>
+  <si>
+    <t>Status should show Disabled</t>
+  </si>
+  <si>
+    <t>User should be removed</t>
+  </si>
+  <si>
+    <t>Error message should appear</t>
+  </si>
+  <si>
+    <t>Validation error for username</t>
+  </si>
+  <si>
+    <t>Error: Username already exists</t>
+  </si>
+  <si>
+    <t>Error: Passwords do not match</t>
+  </si>
+  <si>
+    <t>User is not added</t>
+  </si>
+  <si>
+    <t>Only ESS users shown</t>
+  </si>
+  <si>
+    <t>Only disabled users shown</t>
+  </si>
+  <si>
+    <t>User is redirected to login page</t>
+  </si>
+  <si>
+    <t>User detail page opens</t>
+  </si>
+  <si>
+    <t>Validation error or successful save depending on rules</t>
   </si>
 </sst>
 </file>
@@ -525,20 +618,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -569,16 +663,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -586,16 +686,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -603,16 +709,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -620,16 +732,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -637,16 +755,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -654,16 +778,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -671,16 +795,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -688,16 +812,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -705,16 +829,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -722,16 +846,101 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
